--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145987.8854572596</v>
+        <v>25230194.22969465</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145987.8854572596</v>
+        <v>25230194.22969465</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5917.172658923651</v>
+        <v>589948.1820630119</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5917.172658923651</v>
+        <v>589948.1820630119</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1111440653.421238</v>
+        <v>44482564.22199853</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7933.497475363683</v>
+        <v>912644.4012421203</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15847.83743048183</v>
+        <v>1821476.455955378</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23762.1773855999</v>
+        <v>2730308.510668644</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31944.04978310409</v>
+        <v>3643739.050713364</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40112.81742360887</v>
+        <v>4554561.744115201</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48281.58506411364</v>
+        <v>5465384.437517035</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56450.35270461842</v>
+        <v>6376207.130918867</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64619.1203451232</v>
+        <v>7287029.824320699</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72674.16703369592</v>
+        <v>8192344.961328747</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>80706.72308808434</v>
+        <v>9101286.972890064</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88680.71291130979</v>
+        <v>10006888.30824305</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96457.3363107445</v>
+        <v>10916012.95565084</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>104231.3735324603</v>
+        <v>11824622.95369264</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>112553.0633436385</v>
+        <v>12683701.94052306</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>120876.8164283703</v>
+        <v>13532464.52734754</v>
       </c>
     </row>
   </sheetData>
@@ -27040,25 +27040,25 @@
         <v>77.00000000000426</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>352.9999999999957</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>77.00000000000426</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>372.0000000001367</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>198</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
